--- a/output/Transitions Rule/summary_tables/transition_rule_summary_tables_APC-PortAuthur.xlsx
+++ b/output/Transitions Rule/summary_tables/transition_rule_summary_tables_APC-PortAuthur.xlsx
@@ -599,22 +599,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E9" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F9" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G9" t="n">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -622,22 +622,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="C10" t="n">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4</v>
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -843,22 +843,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>8.3</v>
       </c>
       <c r="C9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="n">
-        <v>6.3</v>
+        <v>8.2</v>
       </c>
       <c r="E9" t="n">
         <v>5.4</v>
       </c>
       <c r="F9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
@@ -866,22 +866,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="C10" t="n">
-        <v>0.079</v>
+        <v>0.11</v>
       </c>
       <c r="D10" t="n">
-        <v>0.000000000000000025</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.000000000000000023</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.014</v>
+        <v>0.0000000000000000079</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0096</v>
+        <v>0.032</v>
       </c>
     </row>
   </sheetData>
